--- a/src/main/java/utility/cardNumber_v1.xlsx
+++ b/src/main/java/utility/cardNumber_v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="193">
   <si>
     <t>caseID</t>
   </si>
@@ -1197,8 +1197,8 @@
   <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1341,7 @@
         <v>case1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
@@ -1548,7 +1548,9 @@
       <c r="S4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T4" s="1"/>
+      <c r="T4" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="U4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1623,7 +1625,9 @@
       <c r="S5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="U5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2013,7 +2017,9 @@
       <c r="S11" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="T11" s="1"/>
+      <c r="T11" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="U11" s="1" t="s">
         <v>79</v>
       </c>
@@ -2079,14 +2085,18 @@
       <c r="P12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T12" s="1"/>
+      <c r="T12" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="U12" s="1" t="s">
         <v>84</v>
       </c>
@@ -2224,7 +2234,9 @@
       <c r="S14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T14" s="1"/>
+      <c r="T14" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="U14" s="1" t="s">
         <v>92</v>
       </c>
@@ -2299,7 +2311,9 @@
       <c r="S15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T15" s="1"/>
+      <c r="T15" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="U15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2374,7 +2388,9 @@
       <c r="S16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T16" s="1"/>
+      <c r="T16" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="U16" s="1" t="s">
         <v>97</v>
       </c>
@@ -2449,7 +2465,9 @@
       <c r="S17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T17" s="1"/>
+      <c r="T17" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="U17" s="1" t="s">
         <v>51</v>
       </c>
@@ -2524,7 +2542,9 @@
       <c r="S18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T18" s="1"/>
+      <c r="T18" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="U18" s="1" t="s">
         <v>104</v>
       </c>
@@ -2914,7 +2934,9 @@
       <c r="S24" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="T24" s="1"/>
+      <c r="T24" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="U24" s="1" t="s">
         <v>123</v>
       </c>
@@ -2989,7 +3011,9 @@
       <c r="S25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T25" s="1"/>
+      <c r="T25" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="U25" s="1" t="s">
         <v>84</v>
       </c>

--- a/src/main/java/utility/cardNumber_v1.xlsx
+++ b/src/main/java/utility/cardNumber_v1.xlsx
@@ -25,9 +25,6 @@
     <t>caseID</t>
   </si>
   <si>
-    <t>Available</t>
-  </si>
-  <si>
     <t>testName</t>
   </si>
   <si>
@@ -766,6 +763,9 @@
   </si>
   <si>
     <t>5200990000000009</t>
+  </si>
+  <si>
+    <t>Enable</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1198,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,121 +1218,121 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AO1" t="s">
         <v>29</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="120" x14ac:dyDescent="0.25">
@@ -1344,61 +1344,61 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -1418,64 +1418,64 @@
         <v>case2</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -1495,64 +1495,64 @@
         <v>case3</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1572,64 +1572,64 @@
         <v>case4</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1649,40 +1649,40 @@
         <v>case5</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1692,7 +1692,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1712,40 +1712,40 @@
         <v>case6</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1755,7 +1755,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1775,40 +1775,40 @@
         <v>case7</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1818,7 +1818,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1838,40 +1838,40 @@
         <v>case8</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1881,7 +1881,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1901,40 +1901,40 @@
         <v>case9</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1944,7 +1944,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -1964,64 +1964,64 @@
         <v>case10</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -2041,64 +2041,64 @@
         <v>case11</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -2118,40 +2118,40 @@
         <v>case12</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2161,7 +2161,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -2184,61 +2184,61 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -2261,61 +2261,61 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="P15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -2338,61 +2338,61 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="O16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -2415,61 +2415,61 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -2489,64 +2489,64 @@
         <v>case17</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -2566,40 +2566,40 @@
         <v>case18</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2609,7 +2609,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -2632,37 +2632,37 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2672,7 +2672,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -2695,37 +2695,37 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2735,7 +2735,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -2758,37 +2758,37 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2798,7 +2798,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -2821,37 +2821,37 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2861,7 +2861,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -2884,61 +2884,61 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -2961,61 +2961,61 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -3038,37 +3038,37 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3078,7 +3078,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -3146,207 +3146,207 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/utility/cardNumber_v1.xlsx
+++ b/src/main/java/utility/cardNumber_v1.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98782F5C-48A7-4BC5-A804-C6134BA15D0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -771,7 +772,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1193,12 +1194,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1342,7 @@
         <v>case1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
@@ -1418,7 +1419,7 @@
         <v>case2</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -1495,7 +1496,7 @@
         <v>case3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
@@ -1572,7 +1573,7 @@
         <v>case4</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>46</v>
@@ -1649,7 +1650,7 @@
         <v>case5</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>51</v>
@@ -1712,7 +1713,7 @@
         <v>case6</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>56</v>
@@ -1775,7 +1776,7 @@
         <v>case7</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>61</v>
@@ -1838,7 +1839,7 @@
         <v>case8</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>66</v>
@@ -1901,7 +1902,7 @@
         <v>case9</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>71</v>
@@ -1964,7 +1965,7 @@
         <v>case10</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>74</v>
@@ -2041,7 +2042,7 @@
         <v>case11</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>79</v>
@@ -2118,7 +2119,7 @@
         <v>case12</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>84</v>
@@ -3132,7 +3133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/src/main/java/utility/cardNumber_v1.xlsx
+++ b/src/main/java/utility/cardNumber_v1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98782F5C-48A7-4BC5-A804-C6134BA15D0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99339BCF-8722-4F72-BD34-8B62F4A0CD59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1198,8 +1203,8 @@
   <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1347,7 @@
         <v>case1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
@@ -1419,7 +1424,7 @@
         <v>case2</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -1496,7 +1501,7 @@
         <v>case3</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
@@ -1573,7 +1578,7 @@
         <v>case4</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>46</v>
@@ -1650,7 +1655,7 @@
         <v>case5</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>51</v>
@@ -1713,7 +1718,7 @@
         <v>case6</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>56</v>
@@ -1776,7 +1781,7 @@
         <v>case7</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>61</v>
@@ -1839,7 +1844,7 @@
         <v>case8</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>66</v>
@@ -1902,7 +1907,7 @@
         <v>case9</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>71</v>
@@ -1965,7 +1970,7 @@
         <v>case10</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>74</v>
@@ -2042,7 +2047,7 @@
         <v>case11</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>79</v>
@@ -2119,7 +2124,7 @@
         <v>case12</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>84</v>

--- a/src/main/java/utility/cardNumber_v1.xlsx
+++ b/src/main/java/utility/cardNumber_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99339BCF-8722-4F72-BD34-8B62F4A0CD59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D58B62-F4D7-4F03-AC10-53EA76F1445F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="189">
   <si>
     <t>caseID</t>
   </si>
@@ -448,17 +448,8 @@
 ErrorDesc = &lt;blank&gt;</t>
   </si>
   <si>
-    <t>Test Case 5: Activation During Shopping</t>
-  </si>
-  <si>
-    <t>Activation during shopping.</t>
-  </si>
-  <si>
     <t>EXP Date: 01/****
 PAN: 5200000000000106</t>
-  </si>
-  <si>
-    <t>Merchant should append EciFlag and Cavv value to the authorization message.</t>
   </si>
   <si>
     <t>Test Case 6: Timeout</t>
@@ -745,9 +736,6 @@
   </si>
   <si>
     <t>5200000000000908</t>
-  </si>
-  <si>
-    <t>5200000000000106</t>
   </si>
   <si>
     <t>5200000000000049</t>
@@ -1200,11 +1188,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1278,7 +1266,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -1356,52 +1344,52 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>35</v>
@@ -1420,7 +1408,7 @@
     </row>
     <row r="3" spans="1:41" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A26" si="0">"case"&amp;ROW()-1</f>
+        <f t="shared" ref="A3:A25" si="0">"case"&amp;ROW()-1</f>
         <v>case2</v>
       </c>
       <c r="B3" s="1">
@@ -1433,52 +1421,52 @@
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>40</v>
@@ -1510,52 +1498,52 @@
         <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>45</v>
@@ -1587,52 +1575,52 @@
         <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>50</v>
@@ -1664,31 +1652,31 @@
         <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1727,31 +1715,31 @@
         <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1790,31 +1778,31 @@
         <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1853,31 +1841,31 @@
         <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1916,31 +1904,31 @@
         <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1979,52 +1967,52 @@
         <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>77</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>78</v>
@@ -2056,52 +2044,52 @@
         <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>82</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>83</v>
@@ -2133,31 +2121,31 @@
         <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2196,52 +2184,52 @@
         <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>90</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>91</v>
@@ -2273,52 +2261,52 @@
         <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>40</v>
@@ -2350,52 +2338,52 @@
         <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>95</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>96</v>
@@ -2427,52 +2415,52 @@
         <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>50</v>
@@ -2498,61 +2486,47 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
       <c r="U18" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -2566,7 +2540,7 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
     </row>
-    <row r="19" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>case18</v>
@@ -2575,37 +2549,37 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>159</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2615,7 +2589,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -2638,37 +2612,37 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2678,7 +2652,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -2692,7 +2666,7 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
     </row>
-    <row r="21" spans="1:32" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>case20</v>
@@ -2704,34 +2678,34 @@
         <v>110</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2741,7 +2715,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -2764,37 +2738,37 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2818,7 +2792,7 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
     </row>
-    <row r="23" spans="1:32" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>case22</v>
@@ -2827,47 +2801,61 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="U23" s="1" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -2881,7 +2869,7 @@
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
     </row>
-    <row r="24" spans="1:32" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>case23</v>
@@ -2890,61 +2878,61 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="R24" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
       <c r="S24" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -2958,7 +2946,7 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
     </row>
-    <row r="25" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>case24</v>
@@ -2970,58 +2958,44 @@
         <v>123</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>159</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
       <c r="U25" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -3034,69 +3008,6 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-    </row>
-    <row r="26" spans="1:32" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>case25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AH1:AK1">
@@ -3160,7 +3071,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3168,7 +3079,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3176,7 +3087,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3184,7 +3095,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3192,7 +3103,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3200,7 +3111,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3208,7 +3119,7 @@
         <v>63</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3216,7 +3127,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3224,7 +3135,7 @@
         <v>73</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,7 +3143,7 @@
         <v>76</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3240,7 +3151,7 @@
         <v>81</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3248,7 +3159,7 @@
         <v>86</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3256,7 +3167,7 @@
         <v>89</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3264,7 +3175,7 @@
         <v>92</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3272,7 +3183,7 @@
         <v>94</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3280,79 +3191,79 @@
         <v>98</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/utility/cardNumber_v1.xlsx
+++ b/src/main/java/utility/cardNumber_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D58B62-F4D7-4F03-AC10-53EA76F1445F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EB5D6C-4841-4470-966E-7F07CB8528F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,8 +1191,8 @@
   <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/utility/cardNumber_v1.xlsx
+++ b/src/main/java/utility/cardNumber_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EB5D6C-4841-4470-966E-7F07CB8528F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500E0906-33AC-49C7-8512-15CB0EE46704}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8415" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1191,8 +1191,8 @@
   <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1335,7 @@
         <v>case1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
@@ -1412,7 +1412,7 @@
         <v>case2</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -1489,7 +1489,7 @@
         <v>case3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
@@ -1566,7 +1566,7 @@
         <v>case4</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>46</v>
@@ -1643,7 +1643,7 @@
         <v>case5</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>51</v>
@@ -1706,7 +1706,7 @@
         <v>case6</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>56</v>
@@ -1769,7 +1769,7 @@
         <v>case7</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>61</v>
@@ -1832,7 +1832,7 @@
         <v>case8</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>66</v>
@@ -1895,7 +1895,7 @@
         <v>case9</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>71</v>
@@ -1958,7 +1958,7 @@
         <v>case10</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>74</v>
@@ -2035,7 +2035,7 @@
         <v>case11</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>79</v>
@@ -2112,7 +2112,7 @@
         <v>case12</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>84</v>

--- a/src/main/java/utility/cardNumber_v1.xlsx
+++ b/src/main/java/utility/cardNumber_v1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500E0906-33AC-49C7-8512-15CB0EE46704}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC53FB7F-5D3A-4F82-88B7-EA0A956562C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8415" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="178">
   <si>
     <t>caseID</t>
   </si>
@@ -122,10 +122,6 @@
   </si>
   <si>
     <t>Cardholder enrolled, successful authentication, successful signature verification.</t>
-  </si>
-  <si>
-    <t>EXP Date: 01/****
-PAN: 4000000000000002</t>
   </si>
   <si>
     <t>cmpi_lookup response
@@ -155,10 +151,6 @@
     <t>Cardholder enrolled, successful authentication, unsuccessful signature verification.</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 4000000000000010</t>
-  </si>
-  <si>
     <t>cmpi_authenticate response
 PAResStatus = Y
 SignatureVerification = N
@@ -178,10 +170,6 @@
     <t>Cardholder enrolled, unsuccessful authentication, successful signature verification.</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 4000000000000028</t>
-  </si>
-  <si>
     <t>cmpi_authenticate response
 PAResStatus = N
 SignatureVerification = Y
@@ -201,10 +189,6 @@
     <t>Passive Authentication - cardholder not prompted for authentication credential.</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 4000000000000101</t>
-  </si>
-  <si>
     <t>cmpi_authenticate response
 PAResStatus = A
 SignatureVerification = Y
@@ -224,10 +208,6 @@
     <t>Timeout encountered while processing the cmpi_lookup transaction.</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 4000000000000044</t>
-  </si>
-  <si>
     <t>cmpi_lookup response
 Enrolled = &lt;blank&gt;
 ACSUrl = &lt;blank&gt;
@@ -243,10 +223,6 @@
   </si>
   <si>
     <t>Cardholder not enrolled. Issuing Bank not participating.</t>
-  </si>
-  <si>
-    <t>EXP Date: 01/****
-PAN: 4000000000000051</t>
   </si>
   <si>
     <t>cmpi_lookup response
@@ -267,10 +243,6 @@
     <t>Authentication unavailable (lookup message response).</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 4000000000000069</t>
-  </si>
-  <si>
     <t>cmpi_lookup response
 Enrolled = U
 ACSUrl = &lt;blank&gt;
@@ -289,10 +261,6 @@
     <t>Merchant not able to execute transactions.</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 4000000000000077</t>
-  </si>
-  <si>
     <t>cmpi_lookup response
 Enrolled = U
 ACSUrl = &lt;blank&gt;
@@ -311,18 +279,10 @@
     <t>Error response to cmpi_lookup message.</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 4000000000000085</t>
-  </si>
-  <si>
     <t>Test Case 10: cmpi_authenticate error</t>
   </si>
   <si>
     <t>Cardholder enrolled, error response to cmpi_authenticate message.</t>
-  </si>
-  <si>
-    <t>EXP Date: 01/****
-PAN: 4000000000000093</t>
   </si>
   <si>
     <t>cmpi_authenticate response
@@ -344,10 +304,6 @@
     <t>Cardholder enrolled.</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 4000000000000036</t>
-  </si>
-  <si>
     <t>cmpi_authenticate response
 PAResStatus = U
 SignatureVerification = Y
@@ -367,10 +323,6 @@
     <t>Bypass used to simulate a scenario where merchant has elected to bypass the consumer authentication flow via Cardinal Rules Engine configuration.</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 4000990000000004</t>
-  </si>
-  <si>
     <t>cmpi_lookup response
 Enrolled = B
 ACSUrl = &lt;blank&gt;
@@ -381,10 +333,6 @@
   </si>
   <si>
     <t>Merchant should proceed with authorization message.</t>
-  </si>
-  <si>
-    <t>EXP Date: 01/****
-PAN: 5200000000000007</t>
   </si>
   <si>
     <t>cmpi_authenticate response
@@ -400,10 +348,6 @@
     <t>Merchant should append the Cavv and EciFlag values to the authorization message.</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 5200000000000015</t>
-  </si>
-  <si>
     <t>cmpi_authenticate response
 PAResStatus = Y
 SignatureVerification = N
@@ -414,10 +358,6 @@
 ErrorDesc = &lt;blank&gt;</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 5200000000000023</t>
-  </si>
-  <si>
     <t>cmpi_authenticate response
 PAResStatus = N
 SignatureVerification = Y
@@ -434,10 +374,6 @@
     <t>Passive Authentication - cardholder not prompted for authentication credential</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 5200000000000908</t>
-  </si>
-  <si>
     <t>cmpi_authenticate response
 PAResStatus = A
 SignatureVerification = Y
@@ -448,22 +384,10 @@
 ErrorDesc = &lt;blank&gt;</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 5200000000000106</t>
-  </si>
-  <si>
     <t>Test Case 6: Timeout</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 5200000000000049</t>
-  </si>
-  <si>
     <t>Test Case 7: Not Enrolled</t>
-  </si>
-  <si>
-    <t>EXP Date: 01/****
-PAN: 5200000000000056</t>
   </si>
   <si>
     <t>cmpi_lookup response
@@ -481,10 +405,6 @@
     <t>Test Case 8: Unavailable</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 5200000000000064</t>
-  </si>
-  <si>
     <t>cmpi_lookup response
 Enrolled = U
 ACSUrl = &lt;blank&gt;
@@ -500,10 +420,6 @@
     <t>Merchant not active.</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 5200000000000072</t>
-  </si>
-  <si>
     <t>cmpi_lookup response
 Enrolled = U
 ACSUrl = &lt;blank&gt;
@@ -516,15 +432,7 @@
     <t>Test Case 10: cmpi_lookup error</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 5200000000000080</t>
-  </si>
-  <si>
     <t>Test Case 11: cmpi_authenticate error</t>
-  </si>
-  <si>
-    <t>EXP Date: 01/****
-PAN: 5200000000000098</t>
   </si>
   <si>
     <t>cmpi_authenticate response
@@ -543,10 +451,6 @@
     <t>Test Case 12: Authentication Unavailable</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 5200000000000031</t>
-  </si>
-  <si>
     <t>cmpi_authenticate response
 PAResStatus = U
 SignatureVerification = Y
@@ -560,10 +464,6 @@
     <t>Test Case 13: Bypassed Authentication</t>
   </si>
   <si>
-    <t>EXP Date: 01/****
-PAN: 5200990000000009</t>
-  </si>
-  <si>
     <t>cmpi_lookup response
 Enrolled = B
 ACSUrl = &lt;blank&gt;
@@ -573,81 +473,12 @@
 EciFlag = 00</t>
   </si>
   <si>
-    <t>4000000000000000</t>
-  </si>
-  <si>
     <t>4000000000000010</t>
   </si>
   <si>
-    <t>4000000000000020</t>
-  </si>
-  <si>
-    <t>4000000000000100</t>
-  </si>
-  <si>
-    <t>4000000000000040</t>
-  </si>
-  <si>
-    <t>4000000000000050</t>
-  </si>
-  <si>
-    <t>4000000000000060</t>
-  </si>
-  <si>
-    <t>4000000000000070</t>
-  </si>
-  <si>
-    <t>4000000000000080</t>
-  </si>
-  <si>
-    <t>4000000000000090</t>
-  </si>
-  <si>
-    <t>4000000000000030</t>
-  </si>
-  <si>
-    <t>4000990000000000</t>
-  </si>
-  <si>
-    <t>5200000000000000</t>
-  </si>
-  <si>
-    <t>5200000000000010</t>
-  </si>
-  <si>
-    <t>5200000000000020</t>
-  </si>
-  <si>
-    <t>5200000000000900</t>
-  </si>
-  <si>
-    <t>5200000000000100</t>
-  </si>
-  <si>
-    <t>5200000000000040</t>
-  </si>
-  <si>
-    <t>5200000000000050</t>
-  </si>
-  <si>
-    <t>5200000000000060</t>
-  </si>
-  <si>
-    <t>5200000000000070</t>
-  </si>
-  <si>
     <t>5200000000000080</t>
   </si>
   <si>
-    <t>5200000000000090</t>
-  </si>
-  <si>
-    <t>5200000000000030</t>
-  </si>
-  <si>
-    <t>5200990000000000</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -726,9 +557,6 @@
     <t>4000990000000004</t>
   </si>
   <si>
-    <t>5200000000000007</t>
-  </si>
-  <si>
     <t>5200000000000015</t>
   </si>
   <si>
@@ -760,6 +588,120 @@
   </si>
   <si>
     <t>Enable</t>
+  </si>
+  <si>
+    <t>5200 0000 0000 0007</t>
+  </si>
+  <si>
+    <t>STATUS_AWAITING_PAYMENT</t>
+  </si>
+  <si>
+    <t>STATUS_IN_REVIEW</t>
+  </si>
+  <si>
+    <t>STATUS_PAY</t>
+  </si>
+  <si>
+    <t>STATUS_AVAILABLE</t>
+  </si>
+  <si>
+    <t>STATUS_IN_DISPUTE</t>
+  </si>
+  <si>
+    <t>STATUS_RETURNED</t>
+  </si>
+  <si>
+    <t>STATUS_CANCELED</t>
+  </si>
+  <si>
+    <t>STATUS_DEBITED</t>
+  </si>
+  <si>
+    <t>STATUS_CHARGEBACK</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>Chargeback</t>
+  </si>
+  <si>
+    <t>Refunded</t>
+  </si>
+  <si>
+    <t>Devolvida</t>
+  </si>
+  <si>
+    <t>Disponível</t>
+  </si>
+  <si>
+    <t>Paga</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Chargeback debitado</t>
+  </si>
+  <si>
+    <t>Contested</t>
+  </si>
+  <si>
+    <t>Cancelada</t>
+  </si>
+  <si>
+    <t>Em disputa</t>
+  </si>
+  <si>
+    <t>Em contestação</t>
+  </si>
+  <si>
+    <t>Em devolução</t>
+  </si>
+  <si>
+    <t>In dispute</t>
+  </si>
+  <si>
+    <t>Em análise</t>
+  </si>
+  <si>
+    <t>In review</t>
+  </si>
+  <si>
+    <t>Aguardando pagamento</t>
+  </si>
+  <si>
+    <t>Awaiting Payment</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Portugese</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -1190,9 +1132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14:B25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1266,7 +1208,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -1344,55 +1286,55 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -1415,61 +1357,61 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -1492,61 +1434,61 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1569,61 +1511,61 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1646,37 +1588,37 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1686,7 +1628,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1709,37 +1651,37 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1749,7 +1691,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1772,37 +1714,37 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1812,7 +1754,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1835,37 +1777,37 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1875,7 +1817,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1898,37 +1840,37 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1938,7 +1880,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -1961,61 +1903,61 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -2038,61 +1980,61 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -2115,37 +2057,37 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2155,7 +2097,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -2184,55 +2126,55 @@
         <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -2255,61 +2197,61 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -2332,61 +2274,61 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -2409,61 +2351,61 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -2486,37 +2428,37 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2526,7 +2468,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -2549,37 +2491,37 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2589,7 +2531,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -2612,37 +2554,37 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2652,7 +2594,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -2675,37 +2617,37 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2715,7 +2657,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -2738,37 +2680,37 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2778,7 +2720,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -2801,61 +2743,61 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -2878,61 +2820,61 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -2955,37 +2897,37 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -2995,7 +2937,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -3050,220 +2992,198 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
+        <v>156</v>
+      </c>
+      <c r="E4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>53</v>
+        <v>155</v>
+      </c>
+      <c r="E5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>58</v>
+        <v>161</v>
+      </c>
+      <c r="E6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
+        <v>154</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>68</v>
+        <v>160</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>73</v>
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>159</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/utility/cardNumber_v1.xlsx
+++ b/src/main/java/utility/cardNumber_v1.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC53FB7F-5D3A-4F82-88B7-EA0A956562C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F0D336-260B-40C8-9BF5-8A55A575113E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -19,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="141">
   <si>
     <t>caseID</t>
   </si>
@@ -591,117 +591,6 @@
   </si>
   <si>
     <t>5200 0000 0000 0007</t>
-  </si>
-  <si>
-    <t>STATUS_AWAITING_PAYMENT</t>
-  </si>
-  <si>
-    <t>STATUS_IN_REVIEW</t>
-  </si>
-  <si>
-    <t>STATUS_PAY</t>
-  </si>
-  <si>
-    <t>STATUS_AVAILABLE</t>
-  </si>
-  <si>
-    <t>STATUS_IN_DISPUTE</t>
-  </si>
-  <si>
-    <t>STATUS_RETURNED</t>
-  </si>
-  <si>
-    <t>STATUS_CANCELED</t>
-  </si>
-  <si>
-    <t>STATUS_DEBITED</t>
-  </si>
-  <si>
-    <t>STATUS_CHARGEBACK</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>Canceled</t>
-  </si>
-  <si>
-    <t>Chargeback</t>
-  </si>
-  <si>
-    <t>Refunded</t>
-  </si>
-  <si>
-    <t>Devolvida</t>
-  </si>
-  <si>
-    <t>Disponível</t>
-  </si>
-  <si>
-    <t>Paga</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Chargeback debitado</t>
-  </si>
-  <si>
-    <t>Contested</t>
-  </si>
-  <si>
-    <t>Cancelada</t>
-  </si>
-  <si>
-    <t>Em disputa</t>
-  </si>
-  <si>
-    <t>Em contestação</t>
-  </si>
-  <si>
-    <t>Em devolução</t>
-  </si>
-  <si>
-    <t>In dispute</t>
-  </si>
-  <si>
-    <t>Em análise</t>
-  </si>
-  <si>
-    <t>In review</t>
-  </si>
-  <si>
-    <t>Aguardando pagamento</t>
-  </si>
-  <si>
-    <t>Awaiting Payment</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Meaning</t>
-  </si>
-  <si>
-    <t>Portugese</t>
-  </si>
-  <si>
-    <t>PW</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -1132,9 +1021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,206 +2877,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>